--- a/data/pca/factorExposure/factorExposure_2016-02-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01457518268837428</v>
+        <v>-0.01696350921534726</v>
       </c>
       <c r="C2">
-        <v>0.05932079174884183</v>
+        <v>0.04265122496514715</v>
       </c>
       <c r="D2">
-        <v>0.0492631602106139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08756625076282186</v>
+      </c>
+      <c r="E2">
+        <v>-0.1115920542443573</v>
+      </c>
+      <c r="F2">
+        <v>-0.03563523488961677</v>
+      </c>
+      <c r="G2">
+        <v>-0.006301170303603737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03793823964660861</v>
+        <v>-0.02344485542949171</v>
       </c>
       <c r="C3">
-        <v>0.1250315350213191</v>
+        <v>0.06640364209170654</v>
       </c>
       <c r="D3">
-        <v>0.05755918473396351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07577417862163509</v>
+      </c>
+      <c r="E3">
+        <v>-0.08902880483759598</v>
+      </c>
+      <c r="F3">
+        <v>0.05089293851820899</v>
+      </c>
+      <c r="G3">
+        <v>-0.1082690025591186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06191070103347149</v>
+        <v>-0.06218716898517726</v>
       </c>
       <c r="C4">
-        <v>0.06275840539222249</v>
+        <v>0.06350162818079683</v>
       </c>
       <c r="D4">
-        <v>0.04215091473644259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08153904705333931</v>
+      </c>
+      <c r="E4">
+        <v>-0.1056346194272392</v>
+      </c>
+      <c r="F4">
+        <v>0.02923745295340321</v>
+      </c>
+      <c r="G4">
+        <v>0.04087526367948009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04346126502929538</v>
+        <v>-0.04083513562065481</v>
       </c>
       <c r="C6">
-        <v>0.03699263723570906</v>
+        <v>0.02798027626038156</v>
       </c>
       <c r="D6">
-        <v>0.03734959259547868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.08284607583930216</v>
+      </c>
+      <c r="E6">
+        <v>-0.09753921452884841</v>
+      </c>
+      <c r="F6">
+        <v>0.02351943385695608</v>
+      </c>
+      <c r="G6">
+        <v>-0.001494420379364029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03133517168069276</v>
+        <v>-0.02352578662290845</v>
       </c>
       <c r="C7">
-        <v>0.0343070432595963</v>
+        <v>0.03440692221583812</v>
       </c>
       <c r="D7">
-        <v>0.01877992941215554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.06537576264368472</v>
+      </c>
+      <c r="E7">
+        <v>-0.08556547301516114</v>
+      </c>
+      <c r="F7">
+        <v>0.00337857932574962</v>
+      </c>
+      <c r="G7">
+        <v>0.0797857481654195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01092548245985498</v>
+        <v>-0.008968194949725223</v>
       </c>
       <c r="C8">
-        <v>0.04575553096027608</v>
+        <v>0.03735770159031043</v>
       </c>
       <c r="D8">
-        <v>0.03350810406449278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.05360349970968797</v>
+      </c>
+      <c r="E8">
+        <v>-0.06800882764397609</v>
+      </c>
+      <c r="F8">
+        <v>0.0158565173900676</v>
+      </c>
+      <c r="G8">
+        <v>-0.003494436172536086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04186452984573546</v>
+        <v>-0.04458508645932594</v>
       </c>
       <c r="C9">
-        <v>0.04432085973845876</v>
+        <v>0.04985885493392304</v>
       </c>
       <c r="D9">
-        <v>0.0353638869420658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06873806501501364</v>
+      </c>
+      <c r="E9">
+        <v>-0.08709397316805978</v>
+      </c>
+      <c r="F9">
+        <v>0.007237488033041963</v>
+      </c>
+      <c r="G9">
+        <v>0.04772486324153944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07836134664532883</v>
+        <v>-0.1038480702472441</v>
       </c>
       <c r="C10">
-        <v>-0.1867352204303472</v>
+        <v>-0.2004579540288202</v>
       </c>
       <c r="D10">
-        <v>0.009368585006231051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.004372684478667052</v>
+      </c>
+      <c r="E10">
+        <v>-0.03957672131873458</v>
+      </c>
+      <c r="F10">
+        <v>-0.001439106419183982</v>
+      </c>
+      <c r="G10">
+        <v>0.03198136965720866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0451370845548329</v>
+        <v>-0.0385752472919737</v>
       </c>
       <c r="C11">
-        <v>0.05090002933453874</v>
+        <v>0.04755725806763517</v>
       </c>
       <c r="D11">
-        <v>0.02925302266352421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04595065248820372</v>
+      </c>
+      <c r="E11">
+        <v>-0.03804950367560043</v>
+      </c>
+      <c r="F11">
+        <v>0.009319865116586218</v>
+      </c>
+      <c r="G11">
+        <v>0.05094308437935959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04854625817738147</v>
+        <v>-0.04088551831549935</v>
       </c>
       <c r="C12">
-        <v>0.04606741012648021</v>
+        <v>0.04561340310126025</v>
       </c>
       <c r="D12">
-        <v>0.009018710379739142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03914588525648862</v>
+      </c>
+      <c r="E12">
+        <v>-0.04959919713139265</v>
+      </c>
+      <c r="F12">
+        <v>0.004148360450790283</v>
+      </c>
+      <c r="G12">
+        <v>0.04778213090729711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01764280144271775</v>
+        <v>-0.01696339875832701</v>
       </c>
       <c r="C13">
-        <v>0.05361184001149956</v>
+        <v>0.04302701438784196</v>
       </c>
       <c r="D13">
-        <v>0.01981851765535869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.07592540473583666</v>
+      </c>
+      <c r="E13">
+        <v>-0.1321037732502362</v>
+      </c>
+      <c r="F13">
+        <v>0.01321272743756603</v>
+      </c>
+      <c r="G13">
+        <v>0.05560361290185555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0167165349049906</v>
+        <v>-0.009564633852076712</v>
       </c>
       <c r="C14">
-        <v>0.03038210163690108</v>
+        <v>0.02893595508967899</v>
       </c>
       <c r="D14">
-        <v>0.01143669780535475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.05019971468529977</v>
+      </c>
+      <c r="E14">
+        <v>-0.08112485544983383</v>
+      </c>
+      <c r="F14">
+        <v>-0.01464760625327385</v>
+      </c>
+      <c r="G14">
+        <v>0.04941695249714406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0005447095846386996</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006349499256352555</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0123700429801256</v>
+      </c>
+      <c r="E15">
+        <v>-0.0121499520848087</v>
+      </c>
+      <c r="F15">
+        <v>0.0001714051020004445</v>
+      </c>
+      <c r="G15">
+        <v>0.0003035920587523415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04426668969127894</v>
+        <v>-0.03773800107585075</v>
       </c>
       <c r="C16">
-        <v>0.04796298340821516</v>
+        <v>0.04495077979446981</v>
       </c>
       <c r="D16">
-        <v>0.01697774819957137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04122244617540774</v>
+      </c>
+      <c r="E16">
+        <v>-0.0523884544369215</v>
+      </c>
+      <c r="F16">
+        <v>-0.006605812322004003</v>
+      </c>
+      <c r="G16">
+        <v>0.04024567700466911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02546596825129153</v>
+        <v>-0.01799857767345944</v>
       </c>
       <c r="C19">
-        <v>0.05803213715424963</v>
+        <v>0.04321415834400574</v>
       </c>
       <c r="D19">
-        <v>0.08094240846818848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1040040851376356</v>
+      </c>
+      <c r="E19">
+        <v>-0.1239356769919282</v>
+      </c>
+      <c r="F19">
+        <v>-0.01608734338277528</v>
+      </c>
+      <c r="G19">
+        <v>-0.000640105637051109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0234575045936104</v>
+        <v>-0.01831138297168971</v>
       </c>
       <c r="C20">
-        <v>0.04839756636451479</v>
+        <v>0.0409717176773827</v>
       </c>
       <c r="D20">
-        <v>0.02016114109479848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05720420059071111</v>
+      </c>
+      <c r="E20">
+        <v>-0.09788783219883526</v>
+      </c>
+      <c r="F20">
+        <v>-0.0009424744651822201</v>
+      </c>
+      <c r="G20">
+        <v>0.03039830644134725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02176882720557064</v>
+        <v>-0.01735644911542727</v>
       </c>
       <c r="C21">
-        <v>0.05698747435624302</v>
+        <v>0.04660408463776453</v>
       </c>
       <c r="D21">
-        <v>0.03596351641002603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0850663522637771</v>
+      </c>
+      <c r="E21">
+        <v>-0.1524101307269784</v>
+      </c>
+      <c r="F21">
+        <v>-0.02329194734638041</v>
+      </c>
+      <c r="G21">
+        <v>0.07114261308995326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0004621910425818966</v>
+        <v>-0.005362433243177695</v>
       </c>
       <c r="C22">
-        <v>0.01325446128937553</v>
+        <v>0.02994555522145268</v>
       </c>
       <c r="D22">
-        <v>0.02577104109036783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06906384773209613</v>
+      </c>
+      <c r="E22">
+        <v>-0.07556731636778556</v>
+      </c>
+      <c r="F22">
+        <v>0.06230300268539874</v>
+      </c>
+      <c r="G22">
+        <v>-0.03088498321870588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0004691304966041473</v>
+        <v>-0.005482291956976966</v>
       </c>
       <c r="C23">
-        <v>0.01325644437932656</v>
+        <v>0.03001128147976974</v>
       </c>
       <c r="D23">
-        <v>0.02572862958145654</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06837019083519687</v>
+      </c>
+      <c r="E23">
+        <v>-0.07578326387398472</v>
+      </c>
+      <c r="F23">
+        <v>0.06222405163563544</v>
+      </c>
+      <c r="G23">
+        <v>-0.03019979072319651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.04084950212648004</v>
+        <v>-0.03857545680311818</v>
       </c>
       <c r="C24">
-        <v>0.04914985129703339</v>
+        <v>0.05268319407574656</v>
       </c>
       <c r="D24">
-        <v>0.02241030370024783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.04358663713670043</v>
+      </c>
+      <c r="E24">
+        <v>-0.057366193881977</v>
+      </c>
+      <c r="F24">
+        <v>-0.003939621260769266</v>
+      </c>
+      <c r="G24">
+        <v>0.05968264605963802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05129776426088015</v>
+        <v>-0.04508648845304833</v>
       </c>
       <c r="C25">
-        <v>0.05388921046321979</v>
+        <v>0.05313169537154339</v>
       </c>
       <c r="D25">
-        <v>0.01594663018346274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0396006304941038</v>
+      </c>
+      <c r="E25">
+        <v>-0.05045801361979458</v>
+      </c>
+      <c r="F25">
+        <v>0.01155172928716096</v>
+      </c>
+      <c r="G25">
+        <v>0.05837975588554674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02313760329561883</v>
+        <v>-0.01958474004062877</v>
       </c>
       <c r="C26">
-        <v>0.01442352898082309</v>
+        <v>0.01682521109571125</v>
       </c>
       <c r="D26">
-        <v>0.02121404503770664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04485528669876566</v>
+      </c>
+      <c r="E26">
+        <v>-0.06389656165173302</v>
+      </c>
+      <c r="F26">
+        <v>-0.0149843167254224</v>
+      </c>
+      <c r="G26">
+        <v>0.02154367792549627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09769883940007013</v>
+        <v>-0.1420294207158896</v>
       </c>
       <c r="C28">
-        <v>-0.259474670126043</v>
+        <v>-0.2594443576530624</v>
       </c>
       <c r="D28">
-        <v>-0.001738459329597435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01972656139270447</v>
+      </c>
+      <c r="E28">
+        <v>-0.06449646939459308</v>
+      </c>
+      <c r="F28">
+        <v>-0.002943300697915733</v>
+      </c>
+      <c r="G28">
+        <v>0.06839589767982396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0117171822250196</v>
+        <v>-0.008776655971988347</v>
       </c>
       <c r="C29">
-        <v>0.02720673344603177</v>
+        <v>0.02655203932173083</v>
       </c>
       <c r="D29">
-        <v>0.003454536219336545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04201821398867808</v>
+      </c>
+      <c r="E29">
+        <v>-0.08022722833744178</v>
+      </c>
+      <c r="F29">
+        <v>-0.005399119056620629</v>
+      </c>
+      <c r="G29">
+        <v>0.05541351234373772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04413264682201016</v>
+        <v>-0.04472781751971147</v>
       </c>
       <c r="C30">
-        <v>0.04526157394528243</v>
+        <v>0.05408894556074865</v>
       </c>
       <c r="D30">
-        <v>0.09630922786514648</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1306239020328942</v>
+      </c>
+      <c r="E30">
+        <v>-0.1031487814795681</v>
+      </c>
+      <c r="F30">
+        <v>-0.0004013587064328465</v>
+      </c>
+      <c r="G30">
+        <v>-0.003749799741428048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06831070713130923</v>
+        <v>-0.06437144183620588</v>
       </c>
       <c r="C31">
-        <v>0.04661074797170031</v>
+        <v>0.06125069406052937</v>
       </c>
       <c r="D31">
-        <v>-0.02528964729116839</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007467523799714279</v>
+      </c>
+      <c r="E31">
+        <v>-0.0825305030100205</v>
+      </c>
+      <c r="F31">
+        <v>0.03035187007577085</v>
+      </c>
+      <c r="G31">
+        <v>0.03602266186990216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001206398241682232</v>
+        <v>-0.006059727154122689</v>
       </c>
       <c r="C32">
-        <v>0.03531652151597928</v>
+        <v>0.03245083206509321</v>
       </c>
       <c r="D32">
-        <v>0.04754570749545509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06409403192266062</v>
+      </c>
+      <c r="E32">
+        <v>-0.1058386940891235</v>
+      </c>
+      <c r="F32">
+        <v>-0.03232705269464121</v>
+      </c>
+      <c r="G32">
+        <v>0.08279085139320692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03924515841633421</v>
+        <v>-0.03193608446244691</v>
       </c>
       <c r="C33">
-        <v>0.05643899651744571</v>
+        <v>0.05121197832992311</v>
       </c>
       <c r="D33">
-        <v>0.05905299895178145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09778605283119404</v>
+      </c>
+      <c r="E33">
+        <v>-0.1047733588694719</v>
+      </c>
+      <c r="F33">
+        <v>0.01526260993277829</v>
+      </c>
+      <c r="G33">
+        <v>0.04923872790419996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04507471996132868</v>
+        <v>-0.04032152097563239</v>
       </c>
       <c r="C34">
-        <v>0.06341635495560079</v>
+        <v>0.06215028590595984</v>
       </c>
       <c r="D34">
-        <v>0.0347988180899565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0487383803912393</v>
+      </c>
+      <c r="E34">
+        <v>-0.03861023463327807</v>
+      </c>
+      <c r="F34">
+        <v>-0.000993279055629603</v>
+      </c>
+      <c r="G34">
+        <v>0.06269437894950625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.618267108221055e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.000420848890162825</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.000389322603641074</v>
+      </c>
+      <c r="E35">
+        <v>0.0004369039561955135</v>
+      </c>
+      <c r="F35">
+        <v>-6.979583982373076e-05</v>
+      </c>
+      <c r="G35">
+        <v>0.0001030172688307959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02296361519608277</v>
+        <v>-0.01893293991683799</v>
       </c>
       <c r="C36">
-        <v>0.01557885174057936</v>
+        <v>0.0139292482181812</v>
       </c>
       <c r="D36">
-        <v>0.0129564263793629</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04540477943025414</v>
+      </c>
+      <c r="E36">
+        <v>-0.07530164816447282</v>
+      </c>
+      <c r="F36">
+        <v>-0.0001489493208667897</v>
+      </c>
+      <c r="G36">
+        <v>0.04083306826157009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03359738214487477</v>
+        <v>-0.02509349717601734</v>
       </c>
       <c r="C38">
-        <v>0.02997420037653893</v>
+        <v>0.02469407476992526</v>
       </c>
       <c r="D38">
-        <v>-0.003142859691368345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03740606309695257</v>
+      </c>
+      <c r="E38">
+        <v>-0.06509475837184601</v>
+      </c>
+      <c r="F38">
+        <v>0.001606030026206134</v>
+      </c>
+      <c r="G38">
+        <v>-0.009142762533838606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05334436776825223</v>
+        <v>-0.04594507023785148</v>
       </c>
       <c r="C39">
-        <v>0.05912554875275843</v>
+        <v>0.06149910661078363</v>
       </c>
       <c r="D39">
-        <v>0.04097778790706008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07454050446807088</v>
+      </c>
+      <c r="E39">
+        <v>-0.06328609308674284</v>
+      </c>
+      <c r="F39">
+        <v>-0.01987429995731953</v>
+      </c>
+      <c r="G39">
+        <v>0.04662055854196534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01583696897587345</v>
+        <v>-0.01718402585168151</v>
       </c>
       <c r="C40">
-        <v>0.05762455233765556</v>
+        <v>0.04164279230984792</v>
       </c>
       <c r="D40">
-        <v>0.01278237145969122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05127094404124235</v>
+      </c>
+      <c r="E40">
+        <v>-0.1152191348312749</v>
+      </c>
+      <c r="F40">
+        <v>0.026242288325373</v>
+      </c>
+      <c r="G40">
+        <v>0.04179991429471552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02736542537462243</v>
+        <v>-0.02210770493558554</v>
       </c>
       <c r="C41">
-        <v>0.01167671727736022</v>
+        <v>0.01009886623523618</v>
       </c>
       <c r="D41">
-        <v>0.01075056295413992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03069074330516354</v>
+      </c>
+      <c r="E41">
+        <v>-0.07529642556162436</v>
+      </c>
+      <c r="F41">
+        <v>-0.001790574625876132</v>
+      </c>
+      <c r="G41">
+        <v>0.02901071485778629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04935869063719515</v>
+        <v>-0.03389257804488621</v>
       </c>
       <c r="C43">
-        <v>0.03380688612899725</v>
+        <v>0.02438569478776774</v>
       </c>
       <c r="D43">
-        <v>0.02636735498145668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05940760669041693</v>
+      </c>
+      <c r="E43">
+        <v>-0.08609914919682504</v>
+      </c>
+      <c r="F43">
+        <v>0.02051365908509314</v>
+      </c>
+      <c r="G43">
+        <v>0.04477849511852171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02072881867219405</v>
+        <v>-0.02133501707324436</v>
       </c>
       <c r="C44">
-        <v>0.06604403296383418</v>
+        <v>0.04747226762540612</v>
       </c>
       <c r="D44">
-        <v>0.002951155705175103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05135473181465668</v>
+      </c>
+      <c r="E44">
+        <v>-0.1076598596791</v>
+      </c>
+      <c r="F44">
+        <v>-0.01470695090225434</v>
+      </c>
+      <c r="G44">
+        <v>0.03034712355561865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01734819380903831</v>
+        <v>-0.01529798922304031</v>
       </c>
       <c r="C46">
-        <v>0.02454273049237025</v>
+        <v>0.02924485336851909</v>
       </c>
       <c r="D46">
-        <v>-0.0007050361781512216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03785302561457018</v>
+      </c>
+      <c r="E46">
+        <v>-0.08915535813613806</v>
+      </c>
+      <c r="F46">
+        <v>-0.01941433355969185</v>
+      </c>
+      <c r="G46">
+        <v>0.07051197210540118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09681805666208812</v>
+        <v>-0.09631783119714321</v>
       </c>
       <c r="C47">
-        <v>0.06756238108491912</v>
+        <v>0.08045724072359223</v>
       </c>
       <c r="D47">
-        <v>-0.03991205389040475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008488919837394119</v>
+      </c>
+      <c r="E47">
+        <v>-0.06944972297944985</v>
+      </c>
+      <c r="F47">
+        <v>0.01886447909427673</v>
+      </c>
+      <c r="G47">
+        <v>0.06133292578144951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02563427722448659</v>
+        <v>-0.02120839207570403</v>
       </c>
       <c r="C48">
-        <v>0.01095193730210927</v>
+        <v>0.0154220981889713</v>
       </c>
       <c r="D48">
-        <v>-0.008433290354587692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.03187372085773121</v>
+      </c>
+      <c r="E48">
+        <v>-0.09240053117470924</v>
+      </c>
+      <c r="F48">
+        <v>-0.007711713918629992</v>
+      </c>
+      <c r="G48">
+        <v>0.04517580475724661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08635169167749568</v>
+        <v>-0.07396719156922357</v>
       </c>
       <c r="C50">
-        <v>0.08862874596384902</v>
+        <v>0.07620501701789292</v>
       </c>
       <c r="D50">
-        <v>-0.03804501211293346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01055022974095386</v>
+      </c>
+      <c r="E50">
+        <v>-0.08719972194097173</v>
+      </c>
+      <c r="F50">
+        <v>0.05615342694286971</v>
+      </c>
+      <c r="G50">
+        <v>0.02204585773783498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01878941509754074</v>
+        <v>-0.01416035841089317</v>
       </c>
       <c r="C51">
-        <v>0.04747758564764402</v>
+        <v>0.02891050325306905</v>
       </c>
       <c r="D51">
-        <v>0.06418328908964033</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07917410165290213</v>
+      </c>
+      <c r="E51">
+        <v>-0.07189563564353502</v>
+      </c>
+      <c r="F51">
+        <v>-0.01414528546917663</v>
+      </c>
+      <c r="G51">
+        <v>0.02256211480762298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08880002972771839</v>
+        <v>-0.1015895885128856</v>
       </c>
       <c r="C53">
-        <v>0.08058738667942873</v>
+        <v>0.08795089404508694</v>
       </c>
       <c r="D53">
-        <v>-0.06109388891383906</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04649108042122519</v>
+      </c>
+      <c r="E53">
+        <v>-0.08687649742549874</v>
+      </c>
+      <c r="F53">
+        <v>0.01570954074593154</v>
+      </c>
+      <c r="G53">
+        <v>0.06558635474369132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04213268541292169</v>
+        <v>-0.03289664404820613</v>
       </c>
       <c r="C54">
-        <v>0.03237016335944863</v>
+        <v>0.03132063614360821</v>
       </c>
       <c r="D54">
-        <v>0.02009681387907921</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05170945971890825</v>
+      </c>
+      <c r="E54">
+        <v>-0.08200409884418897</v>
+      </c>
+      <c r="F54">
+        <v>-0.007825103332826041</v>
+      </c>
+      <c r="G54">
+        <v>0.05497332925420383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08570103489045408</v>
+        <v>-0.09342911158510073</v>
       </c>
       <c r="C55">
-        <v>0.05404514735404094</v>
+        <v>0.06803819079416824</v>
       </c>
       <c r="D55">
-        <v>-0.06030879220332017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04795829223082499</v>
+      </c>
+      <c r="E55">
+        <v>-0.05768821194283284</v>
+      </c>
+      <c r="F55">
+        <v>0.02517930827168447</v>
+      </c>
+      <c r="G55">
+        <v>0.02729025796741109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1488395021183029</v>
+        <v>-0.1530268846242508</v>
       </c>
       <c r="C56">
-        <v>0.08439517890806766</v>
+        <v>0.1034101491275798</v>
       </c>
       <c r="D56">
-        <v>-0.06528866777360399</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05480286717707244</v>
+      </c>
+      <c r="E56">
+        <v>-0.04757307428638494</v>
+      </c>
+      <c r="F56">
+        <v>0.02088987154137841</v>
+      </c>
+      <c r="G56">
+        <v>0.03431655285399043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05280240137651498</v>
+        <v>-0.04043804149262125</v>
       </c>
       <c r="C58">
-        <v>0.007570986686723373</v>
+        <v>0.01610395918234349</v>
       </c>
       <c r="D58">
-        <v>0.195630059602182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.278772946795915</v>
+      </c>
+      <c r="E58">
+        <v>-0.3470116700398241</v>
+      </c>
+      <c r="F58">
+        <v>0.1573445381884386</v>
+      </c>
+      <c r="G58">
+        <v>-0.5503706306226192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1260323379134548</v>
+        <v>-0.1441542755812995</v>
       </c>
       <c r="C59">
-        <v>-0.2048415614918098</v>
+        <v>-0.1929340896691893</v>
       </c>
       <c r="D59">
-        <v>0.0376128060830415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03871829751473169</v>
+      </c>
+      <c r="E59">
+        <v>-0.02947572548375792</v>
+      </c>
+      <c r="F59">
+        <v>-0.02745295351359305</v>
+      </c>
+      <c r="G59">
+        <v>-0.02057628524486407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2845494744623586</v>
+        <v>-0.2605390749414482</v>
       </c>
       <c r="C60">
-        <v>0.1092782414595041</v>
+        <v>0.09817332456553163</v>
       </c>
       <c r="D60">
-        <v>0.2509185616004387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2265376437379218</v>
+      </c>
+      <c r="E60">
+        <v>0.2720991867017318</v>
+      </c>
+      <c r="F60">
+        <v>0.1030136811389808</v>
+      </c>
+      <c r="G60">
+        <v>0.01689577870084626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0522768482656144</v>
+        <v>-0.04728653559869322</v>
       </c>
       <c r="C61">
-        <v>0.05320850660021974</v>
+        <v>0.05496743335099682</v>
       </c>
       <c r="D61">
-        <v>0.03766408073657312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.06193520967485754</v>
+      </c>
+      <c r="E61">
+        <v>-0.06210881113564454</v>
+      </c>
+      <c r="F61">
+        <v>-0.0001686958395585727</v>
+      </c>
+      <c r="G61">
+        <v>0.06139149932090043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01939664015956914</v>
+        <v>-0.01892983646229229</v>
       </c>
       <c r="C63">
-        <v>0.03309548363044462</v>
+        <v>0.03037913134137268</v>
       </c>
       <c r="D63">
-        <v>-0.006784059993924305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03660683371674123</v>
+      </c>
+      <c r="E63">
+        <v>-0.08376848613602997</v>
+      </c>
+      <c r="F63">
+        <v>0.01922331195624639</v>
+      </c>
+      <c r="G63">
+        <v>0.02386389678372529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05537926207706422</v>
+        <v>-0.05903881575280074</v>
       </c>
       <c r="C64">
-        <v>0.04665976418655467</v>
+        <v>0.05951206566800254</v>
       </c>
       <c r="D64">
-        <v>0.01624608977689309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02605048842030196</v>
+      </c>
+      <c r="E64">
+        <v>-0.05387052948312281</v>
+      </c>
+      <c r="F64">
+        <v>-0.01170883094047642</v>
+      </c>
+      <c r="G64">
+        <v>0.08506880747128132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07668341003421314</v>
+        <v>-0.06373737738825545</v>
       </c>
       <c r="C65">
-        <v>0.0260239074447994</v>
+        <v>0.02544163325707742</v>
       </c>
       <c r="D65">
-        <v>0.05592385994554615</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09731124105037524</v>
+      </c>
+      <c r="E65">
+        <v>-0.06229999577113273</v>
+      </c>
+      <c r="F65">
+        <v>0.02892743665500376</v>
+      </c>
+      <c r="G65">
+        <v>-0.05196252225746393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06417403607740385</v>
+        <v>-0.05665792852581834</v>
       </c>
       <c r="C66">
-        <v>0.07700775976649345</v>
+        <v>0.07564830862681372</v>
       </c>
       <c r="D66">
-        <v>0.05882750565748195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09755991660460772</v>
+      </c>
+      <c r="E66">
+        <v>-0.07645337437059613</v>
+      </c>
+      <c r="F66">
+        <v>-0.0003488415241448074</v>
+      </c>
+      <c r="G66">
+        <v>0.03785090282050819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0538429424915492</v>
+        <v>-0.04429361849597351</v>
       </c>
       <c r="C67">
-        <v>0.02969413379484239</v>
+        <v>0.0280740411431273</v>
       </c>
       <c r="D67">
-        <v>-0.01332881799391353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01443561900813176</v>
+      </c>
+      <c r="E67">
+        <v>-0.03569825276091124</v>
+      </c>
+      <c r="F67">
+        <v>0.0044415205013332</v>
+      </c>
+      <c r="G67">
+        <v>-0.00337388980800161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1313270398933843</v>
+        <v>-0.1515840479639162</v>
       </c>
       <c r="C68">
-        <v>-0.2848471444815917</v>
+        <v>-0.2429092900557437</v>
       </c>
       <c r="D68">
-        <v>-0.00429831922822341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.003769664474887237</v>
+      </c>
+      <c r="E68">
+        <v>-0.05063684889600857</v>
+      </c>
+      <c r="F68">
+        <v>0.006966256993701561</v>
+      </c>
+      <c r="G68">
+        <v>-0.004703925362318847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09671969699405529</v>
+        <v>-0.09135216702227812</v>
       </c>
       <c r="C69">
-        <v>0.07603195817099249</v>
+        <v>0.09001121719384252</v>
       </c>
       <c r="D69">
-        <v>-0.03321180437687363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.004818135930547651</v>
+      </c>
+      <c r="E69">
+        <v>-0.07026606603190821</v>
+      </c>
+      <c r="F69">
+        <v>-0.008229845319313554</v>
+      </c>
+      <c r="G69">
+        <v>0.07160415957782909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1179512944800628</v>
+        <v>-0.1450605846202332</v>
       </c>
       <c r="C71">
-        <v>-0.2542573902362849</v>
+        <v>-0.2405149731391433</v>
       </c>
       <c r="D71">
-        <v>0.01994171265802871</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01514298042331691</v>
+      </c>
+      <c r="E71">
+        <v>-0.06850233294068196</v>
+      </c>
+      <c r="F71">
+        <v>0.02841619216606104</v>
+      </c>
+      <c r="G71">
+        <v>0.0439464885398996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1029619444805458</v>
+        <v>-0.1074350234939781</v>
       </c>
       <c r="C72">
-        <v>0.05199936775132215</v>
+        <v>0.0512505034892215</v>
       </c>
       <c r="D72">
-        <v>0.02694384810750118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.05920671835368413</v>
+      </c>
+      <c r="E72">
+        <v>-0.03775296616937852</v>
+      </c>
+      <c r="F72">
+        <v>0.03352322811995757</v>
+      </c>
+      <c r="G72">
+        <v>0.06391666100517965</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3563019554725104</v>
+        <v>-0.3092364663413198</v>
       </c>
       <c r="C73">
-        <v>0.06851939744527867</v>
+        <v>0.07228428751689044</v>
       </c>
       <c r="D73">
-        <v>0.5297903710069298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4421026256736011</v>
+      </c>
+      <c r="E73">
+        <v>0.540278518568843</v>
+      </c>
+      <c r="F73">
+        <v>0.1922139302231574</v>
+      </c>
+      <c r="G73">
+        <v>-0.05315247963997499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.105905639815516</v>
+        <v>-0.1108538294775624</v>
       </c>
       <c r="C74">
-        <v>0.08927797295244351</v>
+        <v>0.08908315433974462</v>
       </c>
       <c r="D74">
-        <v>-0.04669952999680702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03944708271079226</v>
+      </c>
+      <c r="E74">
+        <v>-0.06696570950320035</v>
+      </c>
+      <c r="F74">
+        <v>0.03230990001885706</v>
+      </c>
+      <c r="G74">
+        <v>0.01957730126998662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2517973471500998</v>
+        <v>-0.2555628714559198</v>
       </c>
       <c r="C75">
-        <v>0.0905122001203002</v>
+        <v>0.1235405838627321</v>
       </c>
       <c r="D75">
-        <v>-0.1693000741236986</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1638501818981881</v>
+      </c>
+      <c r="E75">
+        <v>-0.02513368817807492</v>
+      </c>
+      <c r="F75">
+        <v>0.01614571740208238</v>
+      </c>
+      <c r="G75">
+        <v>-0.03067016084721113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1181420734390011</v>
+        <v>-0.1309992577680026</v>
       </c>
       <c r="C76">
-        <v>0.07785695508878014</v>
+        <v>0.08952489914472918</v>
       </c>
       <c r="D76">
-        <v>-0.08532018634854929</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07122457490346736</v>
+      </c>
+      <c r="E76">
+        <v>-0.09478985220806829</v>
+      </c>
+      <c r="F76">
+        <v>0.0006327997089213295</v>
+      </c>
+      <c r="G76">
+        <v>0.02914080839484288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08519201925911238</v>
+        <v>-0.06870733328908621</v>
       </c>
       <c r="C77">
-        <v>0.03518668669437869</v>
+        <v>0.05896914361610951</v>
       </c>
       <c r="D77">
-        <v>0.06028435797736664</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.09012472995388564</v>
+      </c>
+      <c r="E77">
+        <v>-0.1164320103055155</v>
+      </c>
+      <c r="F77">
+        <v>-0.2100018449605403</v>
+      </c>
+      <c r="G77">
+        <v>-0.1451925997085981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04674710535988497</v>
+        <v>-0.04804459931235208</v>
       </c>
       <c r="C78">
-        <v>0.04636973777486088</v>
+        <v>0.05419064069111332</v>
       </c>
       <c r="D78">
-        <v>0.05343399697508247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.09000653538891132</v>
+      </c>
+      <c r="E78">
+        <v>-0.07711337155748386</v>
+      </c>
+      <c r="F78">
+        <v>0.00129257223079535</v>
+      </c>
+      <c r="G78">
+        <v>0.04802057640624181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.00141759161735228</v>
+        <v>-0.03729527193767919</v>
       </c>
       <c r="C79">
-        <v>0.0002584887718992</v>
+        <v>0.05165893772743414</v>
       </c>
       <c r="D79">
-        <v>0.005787015054044267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08750166082073112</v>
+      </c>
+      <c r="E79">
+        <v>-0.08702041471388723</v>
+      </c>
+      <c r="F79">
+        <v>0.03002245925052849</v>
+      </c>
+      <c r="G79">
+        <v>0.1968855604161797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03857460996782461</v>
+        <v>-0.03074590021853016</v>
       </c>
       <c r="C80">
-        <v>0.04253827728443597</v>
+        <v>0.04615291116169783</v>
       </c>
       <c r="D80">
-        <v>0.03656234158184399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04567081710290222</v>
+      </c>
+      <c r="E80">
+        <v>-0.0155235902152674</v>
+      </c>
+      <c r="F80">
+        <v>-0.04150087926640106</v>
+      </c>
+      <c r="G80">
+        <v>0.009364935158948189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1496248580268795</v>
+        <v>-0.1444520846360816</v>
       </c>
       <c r="C81">
-        <v>0.06865776084975934</v>
+        <v>0.09049736856078779</v>
       </c>
       <c r="D81">
-        <v>-0.1427009886222073</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1258589915175772</v>
+      </c>
+      <c r="E81">
+        <v>-0.06822887528056663</v>
+      </c>
+      <c r="F81">
+        <v>0.002355766600004098</v>
+      </c>
+      <c r="G81">
+        <v>0.01163019421816783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2239114433736808</v>
+        <v>-0.2416233253139325</v>
       </c>
       <c r="C82">
-        <v>0.09884661991086219</v>
+        <v>0.1654250798980931</v>
       </c>
       <c r="D82">
-        <v>-0.1858018735105111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2444443710779326</v>
+      </c>
+      <c r="E82">
+        <v>0.06530149146377028</v>
+      </c>
+      <c r="F82">
+        <v>-0.05825104497585151</v>
+      </c>
+      <c r="G82">
+        <v>0.4279868272919737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04433817300046428</v>
+        <v>-0.02975948347324251</v>
       </c>
       <c r="C83">
-        <v>0.03824842285740652</v>
+        <v>0.04764544500186842</v>
       </c>
       <c r="D83">
-        <v>0.05115521957409475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03694555395259783</v>
+      </c>
+      <c r="E83">
+        <v>-0.02796893528419187</v>
+      </c>
+      <c r="F83">
+        <v>-0.02331354260326846</v>
+      </c>
+      <c r="G83">
+        <v>0.009139588590857605</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.105670175813806e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001887273630850479</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001030533228141137</v>
+      </c>
+      <c r="E84">
+        <v>-0.007862009757177161</v>
+      </c>
+      <c r="F84">
+        <v>0.002170752270918154</v>
+      </c>
+      <c r="G84">
+        <v>-0.005867929128108756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2012901968372155</v>
+        <v>-0.1898404846264836</v>
       </c>
       <c r="C85">
-        <v>0.1015233496046379</v>
+        <v>0.1134330710487976</v>
       </c>
       <c r="D85">
-        <v>-0.1800066687560991</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1443604229332549</v>
+      </c>
+      <c r="E85">
+        <v>-0.0100627142417412</v>
+      </c>
+      <c r="F85">
+        <v>0.08936076569908216</v>
+      </c>
+      <c r="G85">
+        <v>-0.01229718044787834</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01385056515148334</v>
+        <v>-0.01699041683745216</v>
       </c>
       <c r="C86">
-        <v>0.02839786112116914</v>
+        <v>0.01714917971493823</v>
       </c>
       <c r="D86">
-        <v>0.05976512404404064</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.09153534672829534</v>
+      </c>
+      <c r="E86">
+        <v>-0.08845980105031148</v>
+      </c>
+      <c r="F86">
+        <v>-0.01343482382200778</v>
+      </c>
+      <c r="G86">
+        <v>0.06670407464777679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03425022511347485</v>
+        <v>-0.03363664078389849</v>
       </c>
       <c r="C87">
-        <v>-0.001345321236214347</v>
+        <v>0.0134501725810386</v>
       </c>
       <c r="D87">
-        <v>0.07537797708215647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1078857398288811</v>
+      </c>
+      <c r="E87">
+        <v>-0.1333298622991727</v>
+      </c>
+      <c r="F87">
+        <v>-0.0494238962513902</v>
+      </c>
+      <c r="G87">
+        <v>-0.02844799575622885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.114915329001183</v>
+        <v>-0.09704076832186964</v>
       </c>
       <c r="C88">
-        <v>0.08848893405930455</v>
+        <v>0.06991733842543334</v>
       </c>
       <c r="D88">
-        <v>-0.005934550856549861</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02376157594477923</v>
+      </c>
+      <c r="E88">
+        <v>-0.04342514783781528</v>
+      </c>
+      <c r="F88">
+        <v>-0.01528777014280106</v>
+      </c>
+      <c r="G88">
+        <v>0.03328903493875084</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1883115016794224</v>
+        <v>-0.2201553948554186</v>
       </c>
       <c r="C89">
-        <v>-0.3759143686695201</v>
+        <v>-0.3811110290743332</v>
       </c>
       <c r="D89">
-        <v>-0.02170621716904944</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.002349352009083843</v>
+      </c>
+      <c r="E89">
+        <v>-0.07275299888879383</v>
+      </c>
+      <c r="F89">
+        <v>-0.06796880759034454</v>
+      </c>
+      <c r="G89">
+        <v>0.02547081146393476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1802204348945262</v>
+        <v>-0.2006324865131867</v>
       </c>
       <c r="C90">
-        <v>-0.334216051486209</v>
+        <v>-0.3096775944322517</v>
       </c>
       <c r="D90">
-        <v>-0.02726068745822058</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.006610943858869102</v>
+      </c>
+      <c r="E90">
+        <v>-0.05603124395193273</v>
+      </c>
+      <c r="F90">
+        <v>-0.00621751204442037</v>
+      </c>
+      <c r="G90">
+        <v>-0.007695138915624213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1940615791712174</v>
+        <v>-0.1889164618545407</v>
       </c>
       <c r="C91">
-        <v>0.1250605876967062</v>
+        <v>0.1421345216185443</v>
       </c>
       <c r="D91">
-        <v>-0.1470949908208907</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1297100017762789</v>
+      </c>
+      <c r="E91">
+        <v>-0.0540985024098098</v>
+      </c>
+      <c r="F91">
+        <v>0.001397398086744007</v>
+      </c>
+      <c r="G91">
+        <v>0.0002677315864451204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1599838861792859</v>
+        <v>-0.1796434860192998</v>
       </c>
       <c r="C92">
-        <v>-0.2876185422047274</v>
+        <v>-0.2963248907659574</v>
       </c>
       <c r="D92">
-        <v>-0.01475069903928165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.002237333083911815</v>
+      </c>
+      <c r="E92">
+        <v>-0.08446342727308459</v>
+      </c>
+      <c r="F92">
+        <v>-0.02808474685441638</v>
+      </c>
+      <c r="G92">
+        <v>0.04164791821045478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.194127502867575</v>
+        <v>-0.2149896722030026</v>
       </c>
       <c r="C93">
-        <v>-0.3445411792504405</v>
+        <v>-0.3206205903771487</v>
       </c>
       <c r="D93">
-        <v>-0.03488211480436466</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0157921924974262</v>
+      </c>
+      <c r="E93">
+        <v>-0.03468435374936496</v>
+      </c>
+      <c r="F93">
+        <v>0.02134712089455273</v>
+      </c>
+      <c r="G93">
+        <v>0.03713486702310559</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.358930895217882</v>
+        <v>-0.3493145626406721</v>
       </c>
       <c r="C94">
-        <v>0.1255844845543435</v>
+        <v>0.1748434616030052</v>
       </c>
       <c r="D94">
-        <v>-0.4729357916358476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4362168018675722</v>
+      </c>
+      <c r="E94">
+        <v>0.06192747411043815</v>
+      </c>
+      <c r="F94">
+        <v>-0.1099955970959792</v>
+      </c>
+      <c r="G94">
+        <v>-0.5462076560955236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1092814105594753</v>
+        <v>-0.08169628658206701</v>
       </c>
       <c r="C95">
-        <v>0.0412274022546118</v>
+        <v>0.0538844468722911</v>
       </c>
       <c r="D95">
-        <v>0.3101078461889026</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2265504971075693</v>
+      </c>
+      <c r="E95">
+        <v>0.110974639595335</v>
+      </c>
+      <c r="F95">
+        <v>-0.8957207764136611</v>
+      </c>
+      <c r="G95">
+        <v>-0.03504086426947937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1867431682593748</v>
+        <v>-0.1841133599994034</v>
       </c>
       <c r="C98">
-        <v>0.03419317959041915</v>
+        <v>0.05035957834077465</v>
       </c>
       <c r="D98">
-        <v>0.2237489992799387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2027353252501528</v>
+      </c>
+      <c r="E98">
+        <v>0.1820906571139109</v>
+      </c>
+      <c r="F98">
+        <v>0.1226337313129683</v>
+      </c>
+      <c r="G98">
+        <v>0.02469051795712016</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01156538791845771</v>
+        <v>-0.008851668792721886</v>
       </c>
       <c r="C101">
-        <v>0.02669233273525112</v>
+        <v>0.02574249910372471</v>
       </c>
       <c r="D101">
-        <v>0.003461751429831723</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04193420361666197</v>
+      </c>
+      <c r="E101">
+        <v>-0.08095260919367693</v>
+      </c>
+      <c r="F101">
+        <v>-0.006344407905368867</v>
+      </c>
+      <c r="G101">
+        <v>0.05572426336087152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1188006263455536</v>
+        <v>-0.1213770920640356</v>
       </c>
       <c r="C102">
-        <v>0.06477347549876047</v>
+        <v>0.09891785131675583</v>
       </c>
       <c r="D102">
-        <v>-0.0575231403471811</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06173441261853844</v>
+      </c>
+      <c r="E102">
+        <v>0.0001072160532978609</v>
+      </c>
+      <c r="F102">
+        <v>-0.02758498681300727</v>
+      </c>
+      <c r="G102">
+        <v>0.04532402084391887</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
